--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem2/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem2/123/word_level_predictions_123.xlsx
@@ -814,730 +814,730 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" t="n">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" t="n">
         <v>4</v>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" t="n">
         <v>5</v>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" t="n">
         <v>6</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>(Airport</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" t="n">
         <v>7</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" t="n">
         <v>8</v>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Airspace</t>
         </is>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" t="n">
         <v>9</v>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Unpaved</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" t="n">
         <v>10</v>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Airports</t>
         </is>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" t="n">
         <v>11</v>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" t="n">
         <v>12</v>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" t="n">
         <v>13</v>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4529,83 +4529,83 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>8</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Strong Interference Now Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Now</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>2</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>Strong Interference Now Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>Now</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10977,7 +10977,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G203" t="b">
@@ -11001,57 +11001,57 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
+      <c r="A204" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B204" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C204" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D204" t="n">
+      <c r="D204" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="E204" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
+      <c r="F204" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -16570,156 +16570,156 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="2" t="n">
+      <c r="A311" t="n">
         <v>28</v>
       </c>
-      <c r="B311" s="2" t="inlineStr">
+      <c r="B311" t="inlineStr">
         <is>
           <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C311" s="2" t="inlineStr">
+      <c r="C311" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="D311" s="2" t="n">
+      <c r="D311" t="n">
         <v>0</v>
       </c>
-      <c r="E311" s="2" t="inlineStr">
+      <c r="E311" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F311" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G311" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H311" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I311" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J311" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K311" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L311" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G311" t="b">
+        <v>1</v>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I311" t="b">
+        <v>1</v>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K311" t="b">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="2" t="n">
+      <c r="A312" t="n">
         <v>28</v>
       </c>
-      <c r="B312" s="2" t="inlineStr">
+      <c r="B312" t="inlineStr">
         <is>
           <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C312" s="2" t="inlineStr">
+      <c r="C312" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D312" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E312" s="2" t="inlineStr">
+      <c r="D312" t="n">
+        <v>1</v>
+      </c>
+      <c r="E312" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F312" s="2" t="inlineStr">
+      <c r="F312" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G312" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H312" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I312" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J312" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K312" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L312" s="2" t="inlineStr">
+      <c r="G312" t="b">
+        <v>1</v>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I312" t="b">
+        <v>1</v>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K312" t="b">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="2" t="n">
+      <c r="A313" t="n">
         <v>28</v>
       </c>
-      <c r="B313" s="2" t="inlineStr">
+      <c r="B313" t="inlineStr">
         <is>
           <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C313" s="2" t="inlineStr">
+      <c r="C313" t="inlineStr">
         <is>
           <t>Approached</t>
         </is>
       </c>
-      <c r="D313" s="2" t="n">
+      <c r="D313" t="n">
         <v>2</v>
       </c>
-      <c r="E313" s="2" t="inlineStr">
+      <c r="E313" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F313" s="2" t="inlineStr">
+      <c r="F313" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G313" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H313" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I313" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J313" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K313" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L313" s="2" t="inlineStr">
+      <c r="G313" t="b">
+        <v>1</v>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I313" t="b">
+        <v>1</v>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K313" t="b">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -19609,7 +19609,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G369" t="b">
@@ -19633,265 +19633,265 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="n">
+      <c r="A370" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B370" t="inlineStr">
+      <c r="B370" s="2" t="inlineStr">
         <is>
           <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
-      <c r="C370" t="inlineStr">
+      <c r="C370" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D370" t="n">
+      <c r="D370" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E370" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F370" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G370" t="b">
-        <v>1</v>
-      </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I370" t="b">
-        <v>1</v>
-      </c>
-      <c r="J370" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K370" t="b">
-        <v>1</v>
-      </c>
-      <c r="L370" t="inlineStr">
+      <c r="E370" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F370" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G370" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H370" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I370" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J370" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K370" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L370" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="n">
+      <c r="A371" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B371" t="inlineStr">
+      <c r="B371" s="2" t="inlineStr">
         <is>
           <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
-      <c r="C371" t="inlineStr">
+      <c r="C371" s="2" t="inlineStr">
         <is>
           <t>avoid</t>
         </is>
       </c>
-      <c r="D371" t="n">
+      <c r="D371" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E371" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F371" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G371" t="b">
-        <v>1</v>
-      </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I371" t="b">
-        <v>1</v>
-      </c>
-      <c r="J371" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K371" t="b">
-        <v>1</v>
-      </c>
-      <c r="L371" t="inlineStr">
+      <c r="E371" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F371" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G371" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H371" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I371" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J371" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K371" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L371" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="n">
+      <c r="A372" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B372" t="inlineStr">
+      <c r="B372" s="2" t="inlineStr">
         <is>
           <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
-      <c r="C372" t="inlineStr">
+      <c r="C372" s="2" t="inlineStr">
         <is>
           <t>blocking</t>
         </is>
       </c>
-      <c r="D372" t="n">
+      <c r="D372" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E372" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F372" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G372" t="b">
-        <v>1</v>
-      </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I372" t="b">
-        <v>1</v>
-      </c>
-      <c r="J372" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K372" t="b">
-        <v>1</v>
-      </c>
-      <c r="L372" t="inlineStr">
+      <c r="E372" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F372" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G372" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H372" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I372" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J372" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K372" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L372" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="n">
+      <c r="A373" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B373" t="inlineStr">
+      <c r="B373" s="2" t="inlineStr">
         <is>
           <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
-      <c r="C373" t="inlineStr">
+      <c r="C373" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D373" t="n">
+      <c r="D373" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E373" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F373" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G373" t="b">
-        <v>1</v>
-      </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I373" t="b">
-        <v>1</v>
-      </c>
-      <c r="J373" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K373" t="b">
-        <v>1</v>
-      </c>
-      <c r="L373" t="inlineStr">
+      <c r="E373" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F373" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G373" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H373" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I373" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J373" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K373" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L373" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="374">
-      <c r="A374" t="n">
+      <c r="A374" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B374" t="inlineStr">
+      <c r="B374" s="2" t="inlineStr">
         <is>
           <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
-      <c r="C374" t="inlineStr">
+      <c r="C374" s="2" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D374" t="n">
+      <c r="D374" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E374" t="inlineStr">
+      <c r="E374" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F374" t="inlineStr">
+      <c r="F374" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G374" t="b">
-        <v>1</v>
-      </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I374" t="b">
-        <v>1</v>
-      </c>
-      <c r="J374" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K374" t="b">
-        <v>1</v>
-      </c>
-      <c r="L374" t="inlineStr">
+      <c r="G374" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H374" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I374" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J374" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K374" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L374" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -23642,208 +23642,208 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="2" t="n">
+      <c r="A447" t="n">
         <v>41</v>
       </c>
-      <c r="B447" s="2" t="inlineStr">
+      <c r="B447" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C447" s="2" t="inlineStr">
+      <c r="C447" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D447" s="2" t="n">
+      <c r="D447" t="n">
         <v>0</v>
       </c>
-      <c r="E447" s="2" t="inlineStr">
+      <c r="E447" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F447" s="2" t="inlineStr">
+      <c r="F447" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G447" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H447" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I447" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J447" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K447" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L447" s="2" t="inlineStr">
+      <c r="G447" t="b">
+        <v>1</v>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I447" t="b">
+        <v>1</v>
+      </c>
+      <c r="J447" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K447" t="b">
+        <v>1</v>
+      </c>
+      <c r="L447" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="2" t="n">
+      <c r="A448" t="n">
         <v>41</v>
       </c>
-      <c r="B448" s="2" t="inlineStr">
+      <c r="B448" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C448" s="2" t="inlineStr">
+      <c r="C448" t="inlineStr">
         <is>
           <t>Less</t>
         </is>
       </c>
-      <c r="D448" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E448" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F448" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G448" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H448" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I448" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J448" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K448" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L448" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="D448" t="n">
+        <v>1</v>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G448" t="b">
+        <v>1</v>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I448" t="b">
+        <v>1</v>
+      </c>
+      <c r="J448" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K448" t="b">
+        <v>1</v>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="2" t="n">
+      <c r="A449" t="n">
         <v>41</v>
       </c>
-      <c r="B449" s="2" t="inlineStr">
+      <c r="B449" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C449" s="2" t="inlineStr">
+      <c r="C449" t="inlineStr">
         <is>
           <t>than</t>
         </is>
       </c>
-      <c r="D449" s="2" t="n">
+      <c r="D449" t="n">
         <v>2</v>
       </c>
-      <c r="E449" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F449" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G449" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H449" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I449" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J449" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K449" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L449" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G449" t="b">
+        <v>1</v>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I449" t="b">
+        <v>1</v>
+      </c>
+      <c r="J449" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K449" t="b">
+        <v>1</v>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="2" t="n">
+      <c r="A450" t="n">
         <v>41</v>
       </c>
-      <c r="B450" s="2" t="inlineStr">
+      <c r="B450" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C450" s="2" t="inlineStr">
+      <c r="C450" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D450" s="2" t="n">
+      <c r="D450" t="n">
         <v>3</v>
       </c>
-      <c r="E450" s="2" t="inlineStr">
+      <c r="E450" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F450" s="2" t="inlineStr">
+      <c r="F450" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G450" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H450" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I450" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J450" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K450" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L450" s="2" t="inlineStr">
+      <c r="G450" t="b">
+        <v>1</v>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I450" t="b">
+        <v>1</v>
+      </c>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K450" t="b">
+        <v>1</v>
+      </c>
+      <c r="L450" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -25878,366 +25878,366 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="2" t="n">
+      <c r="A490" t="n">
         <v>45</v>
       </c>
-      <c r="B490" s="2" t="inlineStr">
+      <c r="B490" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C490" s="2" t="inlineStr">
+      <c r="C490" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D490" s="2" t="n">
+      <c r="D490" t="n">
         <v>7</v>
       </c>
-      <c r="E490" s="2" t="inlineStr">
+      <c r="E490" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F490" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G490" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H490" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I490" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J490" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K490" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L490" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G490" t="b">
+        <v>1</v>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I490" t="b">
+        <v>1</v>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K490" t="b">
+        <v>1</v>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="2" t="n">
+      <c r="A491" t="n">
         <v>45</v>
       </c>
-      <c r="B491" s="2" t="inlineStr">
+      <c r="B491" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C491" s="2" t="inlineStr">
+      <c r="C491" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D491" s="2" t="n">
+      <c r="D491" t="n">
         <v>8</v>
       </c>
-      <c r="E491" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F491" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G491" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H491" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I491" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J491" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K491" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L491" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G491" t="b">
+        <v>1</v>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I491" t="b">
+        <v>1</v>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K491" t="b">
+        <v>1</v>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="2" t="n">
+      <c r="A492" t="n">
         <v>45</v>
       </c>
-      <c r="B492" s="2" t="inlineStr">
+      <c r="B492" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C492" s="2" t="inlineStr">
+      <c r="C492" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D492" s="2" t="n">
+      <c r="D492" t="n">
         <v>9</v>
       </c>
-      <c r="E492" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F492" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G492" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H492" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I492" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J492" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K492" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L492" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G492" t="b">
+        <v>1</v>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I492" t="b">
+        <v>1</v>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K492" t="b">
+        <v>1</v>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="2" t="n">
+      <c r="A493" t="n">
         <v>45</v>
       </c>
-      <c r="B493" s="2" t="inlineStr">
+      <c r="B493" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C493" s="2" t="inlineStr">
+      <c r="C493" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D493" s="2" t="n">
+      <c r="D493" t="n">
         <v>10</v>
       </c>
-      <c r="E493" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F493" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G493" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H493" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I493" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J493" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K493" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L493" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G493" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I493" t="b">
+        <v>1</v>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K493" t="b">
+        <v>1</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="2" t="n">
+      <c r="A494" t="n">
         <v>45</v>
       </c>
-      <c r="B494" s="2" t="inlineStr">
+      <c r="B494" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C494" s="2" t="inlineStr">
+      <c r="C494" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D494" s="2" t="n">
+      <c r="D494" t="n">
         <v>11</v>
       </c>
-      <c r="E494" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F494" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G494" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H494" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I494" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J494" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K494" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L494" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G494" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I494" t="b">
+        <v>1</v>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K494" t="b">
+        <v>1</v>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="2" t="n">
+      <c r="A495" t="n">
         <v>45</v>
       </c>
-      <c r="B495" s="2" t="inlineStr">
+      <c r="B495" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C495" s="2" t="inlineStr">
+      <c r="C495" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D495" s="2" t="n">
+      <c r="D495" t="n">
         <v>12</v>
       </c>
-      <c r="E495" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F495" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G495" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H495" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I495" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J495" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K495" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L495" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G495" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I495" t="b">
+        <v>1</v>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K495" t="b">
+        <v>1</v>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="2" t="n">
+      <c r="A496" t="n">
         <v>45</v>
       </c>
-      <c r="B496" s="2" t="inlineStr">
+      <c r="B496" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C496" s="2" t="inlineStr">
+      <c r="C496" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D496" s="2" t="n">
+      <c r="D496" t="n">
         <v>13</v>
       </c>
-      <c r="E496" s="2" t="inlineStr">
+      <c r="E496" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F496" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G496" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I496" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J496" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K496" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L496" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G496" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I496" t="b">
+        <v>1</v>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K496" t="b">
+        <v>1</v>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem2/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem2/123/word_level_predictions_123.xlsx
@@ -814,730 +814,730 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="D9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="A11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="A12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="G12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="A13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>(Airport</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>Airspace</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>Unpaved</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t>Airports</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -4553,59 +4553,59 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>Now</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10977,81 +10977,81 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>19</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Running Flight Simulator Restart aircraft to take off .</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>7</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B204" s="2" t="inlineStr">
-        <is>
-          <t>Running Flight Simulator Restart aircraft to take off .</t>
-        </is>
-      </c>
-      <c r="C204" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E204" s="2" t="inlineStr">
+      <c r="F204" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -16570,156 +16570,156 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="n">
+      <c r="A311" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B311" t="inlineStr">
+      <c r="B311" s="2" t="inlineStr">
         <is>
           <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C311" t="inlineStr">
+      <c r="C311" s="2" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="D311" t="n">
+      <c r="D311" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E311" t="inlineStr">
+      <c r="E311" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F311" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G311" t="b">
-        <v>1</v>
-      </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I311" t="b">
-        <v>1</v>
-      </c>
-      <c r="J311" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K311" t="b">
-        <v>1</v>
-      </c>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F311" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G311" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H311" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I311" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J311" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K311" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L311" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="n">
+      <c r="A312" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B312" t="inlineStr">
+      <c r="B312" s="2" t="inlineStr">
         <is>
           <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C312" t="inlineStr">
+      <c r="C312" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D312" t="n">
-        <v>1</v>
-      </c>
-      <c r="E312" t="inlineStr">
+      <c r="D312" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E312" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F312" t="inlineStr">
+      <c r="F312" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G312" t="b">
-        <v>1</v>
-      </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I312" t="b">
-        <v>1</v>
-      </c>
-      <c r="J312" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K312" t="b">
-        <v>1</v>
-      </c>
-      <c r="L312" t="inlineStr">
+      <c r="G312" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H312" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I312" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J312" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K312" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L312" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="n">
+      <c r="A313" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B313" t="inlineStr">
+      <c r="B313" s="2" t="inlineStr">
         <is>
           <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C313" t="inlineStr">
+      <c r="C313" s="2" t="inlineStr">
         <is>
           <t>Approached</t>
         </is>
       </c>
-      <c r="D313" t="n">
+      <c r="D313" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E313" t="inlineStr">
+      <c r="E313" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F313" t="inlineStr">
+      <c r="F313" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G313" t="b">
-        <v>1</v>
-      </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I313" t="b">
-        <v>1</v>
-      </c>
-      <c r="J313" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K313" t="b">
-        <v>1</v>
-      </c>
-      <c r="L313" t="inlineStr">
+      <c r="G313" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H313" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I313" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J313" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K313" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L313" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -19609,289 +19609,289 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G369" t="b">
+        <v>1</v>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I369" t="b">
+        <v>1</v>
+      </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K369" t="b">
+        <v>1</v>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>33</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>10</v>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G370" t="b">
+        <v>1</v>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I370" t="b">
+        <v>1</v>
+      </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K370" t="b">
+        <v>1</v>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>33</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>avoid</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>11</v>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G371" t="b">
+        <v>1</v>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I371" t="b">
+        <v>1</v>
+      </c>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K371" t="b">
+        <v>1</v>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>33</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>blocking</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>12</v>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G372" t="b">
+        <v>1</v>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I372" t="b">
+        <v>1</v>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K372" t="b">
+        <v>1</v>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>33</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>13</v>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G373" t="b">
+        <v>1</v>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I373" t="b">
+        <v>1</v>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K373" t="b">
+        <v>1</v>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>33</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>signal</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>14</v>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G369" t="b">
-        <v>1</v>
-      </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I369" t="b">
-        <v>1</v>
-      </c>
-      <c r="J369" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K369" t="b">
-        <v>1</v>
-      </c>
-      <c r="L369" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B370" s="2" t="inlineStr">
-        <is>
-          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
-        </is>
-      </c>
-      <c r="C370" s="2" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D370" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E370" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F370" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G370" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H370" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I370" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J370" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K370" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L370" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B371" s="2" t="inlineStr">
-        <is>
-          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
-        </is>
-      </c>
-      <c r="C371" s="2" t="inlineStr">
-        <is>
-          <t>avoid</t>
-        </is>
-      </c>
-      <c r="D371" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E371" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F371" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G371" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H371" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I371" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J371" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K371" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L371" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B372" s="2" t="inlineStr">
-        <is>
-          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
-        </is>
-      </c>
-      <c r="C372" s="2" t="inlineStr">
-        <is>
-          <t>blocking</t>
-        </is>
-      </c>
-      <c r="D372" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E372" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F372" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G372" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H372" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I372" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J372" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K372" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L372" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B373" s="2" t="inlineStr">
-        <is>
-          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
-        </is>
-      </c>
-      <c r="C373" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D373" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E373" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F373" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G373" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H373" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I373" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J373" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K373" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L373" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B374" s="2" t="inlineStr">
-        <is>
-          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
-        </is>
-      </c>
-      <c r="C374" s="2" t="inlineStr">
-        <is>
-          <t>signal</t>
-        </is>
-      </c>
-      <c r="D374" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E374" s="2" t="inlineStr">
+      <c r="F374" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F374" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G374" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H374" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I374" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J374" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K374" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L374" s="2" t="inlineStr">
+      <c r="G374" t="b">
+        <v>1</v>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I374" t="b">
+        <v>1</v>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K374" t="b">
+        <v>1</v>
+      </c>
+      <c r="L374" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -23642,208 +23642,208 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" t="n">
+      <c r="A447" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B447" t="inlineStr">
+      <c r="B447" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C447" t="inlineStr">
+      <c r="C447" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D447" t="n">
+      <c r="D447" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E447" t="inlineStr">
+      <c r="E447" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F447" t="inlineStr">
+      <c r="F447" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G447" t="b">
-        <v>1</v>
-      </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I447" t="b">
-        <v>1</v>
-      </c>
-      <c r="J447" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K447" t="b">
-        <v>1</v>
-      </c>
-      <c r="L447" t="inlineStr">
+      <c r="G447" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H447" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I447" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J447" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K447" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L447" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="448">
-      <c r="A448" t="n">
+      <c r="A448" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B448" t="inlineStr">
+      <c r="B448" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C448" t="inlineStr">
+      <c r="C448" s="2" t="inlineStr">
         <is>
           <t>Less</t>
         </is>
       </c>
-      <c r="D448" t="n">
-        <v>1</v>
-      </c>
-      <c r="E448" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F448" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G448" t="b">
-        <v>1</v>
-      </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I448" t="b">
-        <v>1</v>
-      </c>
-      <c r="J448" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K448" t="b">
-        <v>1</v>
-      </c>
-      <c r="L448" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="D448" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E448" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F448" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G448" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H448" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I448" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J448" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K448" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L448" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="449">
-      <c r="A449" t="n">
+      <c r="A449" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B449" t="inlineStr">
+      <c r="B449" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C449" t="inlineStr">
+      <c r="C449" s="2" t="inlineStr">
         <is>
           <t>than</t>
         </is>
       </c>
-      <c r="D449" t="n">
+      <c r="D449" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E449" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F449" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G449" t="b">
-        <v>1</v>
-      </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I449" t="b">
-        <v>1</v>
-      </c>
-      <c r="J449" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K449" t="b">
-        <v>1</v>
-      </c>
-      <c r="L449" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E449" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F449" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G449" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H449" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I449" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J449" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K449" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L449" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="n">
+      <c r="A450" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B450" t="inlineStr">
+      <c r="B450" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C450" t="inlineStr">
+      <c r="C450" s="2" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D450" t="n">
+      <c r="D450" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E450" t="inlineStr">
+      <c r="E450" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F450" t="inlineStr">
+      <c r="F450" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G450" t="b">
-        <v>1</v>
-      </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I450" t="b">
-        <v>1</v>
-      </c>
-      <c r="J450" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K450" t="b">
-        <v>1</v>
-      </c>
-      <c r="L450" t="inlineStr">
+      <c r="G450" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H450" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I450" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J450" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K450" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L450" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -25878,366 +25878,366 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" t="n">
+      <c r="A490" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B490" t="inlineStr">
+      <c r="B490" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C490" t="inlineStr">
+      <c r="C490" s="2" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D490" t="n">
+      <c r="D490" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E490" t="inlineStr">
+      <c r="E490" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F490" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G490" t="b">
-        <v>1</v>
-      </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I490" t="b">
-        <v>1</v>
-      </c>
-      <c r="J490" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K490" t="b">
-        <v>1</v>
-      </c>
-      <c r="L490" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F490" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G490" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H490" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I490" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J490" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K490" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L490" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" t="n">
+      <c r="A491" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B491" t="inlineStr">
+      <c r="B491" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C491" t="inlineStr">
+      <c r="C491" s="2" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D491" t="n">
+      <c r="D491" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E491" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F491" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G491" t="b">
-        <v>1</v>
-      </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I491" t="b">
-        <v>1</v>
-      </c>
-      <c r="J491" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K491" t="b">
-        <v>1</v>
-      </c>
-      <c r="L491" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E491" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F491" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G491" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H491" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I491" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J491" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K491" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L491" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="n">
+      <c r="A492" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B492" t="inlineStr">
+      <c r="B492" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C492" t="inlineStr">
+      <c r="C492" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D492" t="n">
+      <c r="D492" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E492" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F492" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G492" t="b">
-        <v>1</v>
-      </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I492" t="b">
-        <v>1</v>
-      </c>
-      <c r="J492" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K492" t="b">
-        <v>1</v>
-      </c>
-      <c r="L492" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E492" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F492" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G492" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H492" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I492" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J492" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K492" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L492" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="493">
-      <c r="A493" t="n">
+      <c r="A493" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B493" t="inlineStr">
+      <c r="B493" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C493" t="inlineStr">
+      <c r="C493" s="2" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D493" t="n">
+      <c r="D493" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E493" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F493" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G493" t="b">
-        <v>1</v>
-      </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I493" t="b">
-        <v>1</v>
-      </c>
-      <c r="J493" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K493" t="b">
-        <v>1</v>
-      </c>
-      <c r="L493" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E493" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F493" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G493" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I493" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J493" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K493" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L493" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" t="n">
+      <c r="A494" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B494" t="inlineStr">
+      <c r="B494" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C494" t="inlineStr">
+      <c r="C494" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D494" t="n">
+      <c r="D494" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E494" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F494" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G494" t="b">
-        <v>1</v>
-      </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I494" t="b">
-        <v>1</v>
-      </c>
-      <c r="J494" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K494" t="b">
-        <v>1</v>
-      </c>
-      <c r="L494" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E494" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F494" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G494" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I494" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J494" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K494" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L494" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="495">
-      <c r="A495" t="n">
+      <c r="A495" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B495" t="inlineStr">
+      <c r="B495" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C495" t="inlineStr">
+      <c r="C495" s="2" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D495" t="n">
+      <c r="D495" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E495" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F495" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G495" t="b">
-        <v>1</v>
-      </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I495" t="b">
-        <v>1</v>
-      </c>
-      <c r="J495" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K495" t="b">
-        <v>1</v>
-      </c>
-      <c r="L495" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E495" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F495" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G495" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I495" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J495" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K495" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L495" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" t="n">
+      <c r="A496" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B496" t="inlineStr">
+      <c r="B496" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C496" t="inlineStr">
+      <c r="C496" s="2" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D496" t="n">
+      <c r="D496" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E496" t="inlineStr">
+      <c r="E496" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F496" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G496" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I496" t="b">
-        <v>1</v>
-      </c>
-      <c r="J496" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K496" t="b">
-        <v>1</v>
-      </c>
-      <c r="L496" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F496" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G496" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I496" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J496" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K496" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L496" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
